--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/MasterDataTrans.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/MasterDataTrans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -374,25 +374,22 @@
     <t>TC006</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Master-&gt;Id1 Cannot be deleted because,Master record exist in the Transaction. Master-&gt;Id1 Cannot be deleted because, Master record exist in price Boook.</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>AUTO040119</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Master-&gt;Id1 Cannot be deleted because,Master record exist in the Transaction.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>AUTO110918</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Record Deleted Successfully.</t>
-  </si>
-  <si>
-    <t>Master-&gt;Id5 Cannot be deleted because,Master record exist in the Transaction.</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="203">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,596 +499,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1489,7 +896,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
@@ -1547,8 +954,7 @@
     <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
@@ -1583,66 +989,7 @@
     <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1947,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,8 +1330,8 @@
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="118" t="s">
-        <v>120</v>
+      <c r="D2" s="58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,8 +1344,8 @@
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="120" t="s">
-        <v>120</v>
+      <c r="D3" s="60" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,8 +1358,8 @@
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>120</v>
+      <c r="D4" s="62" t="s">
+        <v>119</v>
       </c>
     </row>
     <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,8 +1372,8 @@
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="124" t="s">
-        <v>120</v>
+      <c r="D5" s="64" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,8 +1386,8 @@
       <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="126" t="s">
-        <v>120</v>
+      <c r="D6" s="66" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,8 +1400,8 @@
       <c r="C7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D7" t="s" s="128">
-        <v>120</v>
+      <c r="D7" t="s" s="68">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2358,8 +1705,8 @@
       <c r="C2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="117" t="s">
-        <v>120</v>
+      <c r="D2" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>107</v>
@@ -2370,7 +1717,7 @@
       <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="18" t="s">
         <v>122</v>
       </c>
       <c r="I2" s="3"/>
@@ -2458,8 +1805,8 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="119" t="s">
-        <v>120</v>
+      <c r="D3" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>102</v>
@@ -2562,8 +1909,8 @@
       <c r="C4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="121" t="s">
-        <v>120</v>
+      <c r="D4" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>90</v>
@@ -2658,8 +2005,8 @@
       <c r="C5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="123" t="s">
-        <v>120</v>
+      <c r="D5" s="63" t="s">
+        <v>119</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>91</v>
@@ -2668,7 +2015,7 @@
         <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2756,8 +2103,8 @@
       <c r="C6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="125" t="s">
-        <v>120</v>
+      <c r="D6" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>13</v>
@@ -2850,8 +2197,8 @@
       <c r="C7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="127" t="s">
-        <v>120</v>
+      <c r="D7" s="67" t="s">
+        <v>119</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>112</v>
